--- a/chatpj.xlsx
+++ b/chatpj.xlsx
@@ -13,12 +13,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
   <si>
     <t>TalkServer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,9 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://github.com/val4rs7ark/KINTalk.git</t>
-  </si>
-  <si>
     <t>TalkClientVer2(Login)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,14 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KIN@192.168.0.24 :1521/ORCL11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAT_MEMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.화면구성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,6 +223,70 @@
   </si>
   <si>
     <t>3.아이디로 로그인해보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. git pull origin master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. git add.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. git commit -m"메세지"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4. git push origin master                                                                                                                              </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/val4rs7ark/KINTalk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KINTALK@192.168.0.37 :1521/ORCL11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talkroom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roomlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talklog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>procedure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proc_login(p_id in varchar2, p_pw in varchar2, msg out varchar2 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proc_join(p_id in varchar2, p_nick in varchar2, p_pw in varchar2, p_status in varchar2, p_icon in varchar2, msg out varchar2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -242,7 +294,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,15 +321,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -447,7 +490,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -485,44 +528,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -843,13 +886,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -980,7 +1023,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1016,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1029,18 +1072,18 @@
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="6" width="21.25" customWidth="1"/>
     <col min="7" max="7" width="12.75" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -1055,7 +1098,7 @@
       <c r="D2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -1076,7 +1119,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>32</v>
@@ -1122,18 +1165,18 @@
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <v>200</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1149,13 +1192,13 @@
       <c r="E6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>210</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="17" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1165,12 +1208,12 @@
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="17">
+        <v>47</v>
+      </c>
+      <c r="F7" s="16">
         <v>300</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1180,10 +1223,10 @@
       <c r="C8" s="1"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <v>500</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="20" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1193,13 +1236,13 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1208,7 +1251,7 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
         <v>44</v>
@@ -1228,46 +1271,91 @@
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="14" t="s">
         <v>37</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="H16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>55</v>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1277,9 +1365,10 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A19" r:id="rId1"/>
+    <hyperlink ref="A17" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/chatpj.xlsx
+++ b/chatpj.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570" activeTab="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="79">
   <si>
     <t>TalkServer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -287,6 +287,44 @@
   </si>
   <si>
     <t>proc_join(p_id in varchar2, p_nick in varchar2, p_pw in varchar2, p_status in varchar2, p_icon in varchar2, msg out varchar2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proc_frienddel(p_fnick in varchar2, msg out varchar2)</t>
+  </si>
+  <si>
+    <t>proc_friendadd(p_fnick in varchar2, p_faccept in varchar2, p_id in varchar2, p_nick in varchar2, msg out varchar2)</t>
+  </si>
+  <si>
+    <t>:= (아이디,닉네임,패스워드,상태메세지,프로필사진,OUT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:= (아이디,패스워드,OUT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:= (닉네임,OUT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:= (친구닉네임,친구수락여부,내아이디,내닉네임,OUT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1059,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1289,7 +1327,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>58</v>
       </c>
@@ -1297,12 +1335,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>59</v>
       </c>
@@ -1310,7 +1348,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -1321,7 +1359,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -1329,10 +1367,16 @@
         <v>61</v>
       </c>
       <c r="D23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1340,20 +1384,44 @@
         <v>62</v>
       </c>
       <c r="D24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" t="s">
+        <v>70</v>
+      </c>
+      <c r="K25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>65</v>
       </c>

--- a/chatpj.xlsx
+++ b/chatpj.xlsx
@@ -4,20 +4,212 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="KINTALK" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Windows 사용자</author>
+  </authors>
+  <commentList>
+    <comment ref="B12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Client</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>친구목록에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>뿌려줄</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Oracle</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>정보를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> VO</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>담아서</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>목록창에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>뿌린다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="97">
   <si>
     <t>TalkServer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -287,6 +479,118 @@
   </si>
   <si>
     <t>proc_join(p_id in varchar2, p_nick in varchar2, p_pw in varchar2, p_status in varchar2, p_icon in varchar2, msg out varchar2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅방개설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaitingRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FriendList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClientLogic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Protocol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oracle연동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionListener구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateMember</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateChatRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateFriend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServerThread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClientThread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClientVer2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberVO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomVO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KINTalkDao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emoticon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -294,7 +598,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,8 +640,32 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,6 +729,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,7 +834,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -566,6 +906,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -871,7 +1223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1061,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1373,17 +1725,131 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/chatpj.xlsx
+++ b/chatpj.xlsx
@@ -1099,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
